--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126857.566415575</v>
+        <v>124654.1851488396</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7228504.546025764</v>
+        <v>7228504.546025761</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.97848929084728</v>
+        <v>13.97848929084727</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.2989529623116</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2397130498935</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>21.34344496625415</v>
+        <v>136.1829333535853</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6349818986778</v>
+        <v>71.75486906437881</v>
       </c>
       <c r="H3" t="n">
         <v>105.3924852342977</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.16649553541988</v>
+        <v>56.16649553541987</v>
       </c>
       <c r="S3" t="n">
         <v>158.5224393262212</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>20.28168667675228</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>64.54248173186896</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3969671939166</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.5869091062983</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.3625200835392</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.424115140576776</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>178.0806708705319</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>4.285060303199027</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1026,7 +1026,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>152.6937519238258</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>141.6698793785923</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>133.7542698189849</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>191.1776802264641</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>84.84244993117463</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>106.3598368565002</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174148</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>164.8455170424168</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249711</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.65430578147951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>125.6123723105396</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>175.2847318865188</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>68.28731103590628</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>151.0676298616484</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292631</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881767</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>249.7626269887645</v>
+        <v>180.0099309571651</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.0955237083902</v>
+        <v>215.0276763784376</v>
       </c>
     </row>
     <row r="26">
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -3001,7 +3001,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192028</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951283</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>114.4746605491553</v>
+        <v>124.2292170629837</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>350.8780802755082</v>
+        <v>350.878080275508</v>
       </c>
       <c r="C35" t="n">
-        <v>333.4171303830352</v>
+        <v>333.417130383035</v>
       </c>
       <c r="D35" t="n">
-        <v>322.8272802327106</v>
+        <v>322.8272802327103</v>
       </c>
       <c r="E35" t="n">
-        <v>350.0746086842894</v>
+        <v>350.0746086842892</v>
       </c>
       <c r="F35" t="n">
-        <v>375.020284353739</v>
+        <v>375.0202843537388</v>
       </c>
       <c r="G35" t="n">
-        <v>379.0659642654811</v>
+        <v>379.0659642654808</v>
       </c>
       <c r="H35" t="n">
-        <v>262.7520029993481</v>
+        <v>262.7520029993478</v>
       </c>
       <c r="I35" t="n">
-        <v>9.721168384953547</v>
+        <v>9.721168384953359</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.33200040020344</v>
+        <v>77.33200040020324</v>
       </c>
       <c r="T35" t="n">
-        <v>172.0622087516477</v>
+        <v>172.0622087516476</v>
       </c>
       <c r="U35" t="n">
-        <v>219.1394105709296</v>
+        <v>219.1394105709294</v>
       </c>
       <c r="V35" t="n">
-        <v>295.8964970821625</v>
+        <v>295.8964970821623</v>
       </c>
       <c r="W35" t="n">
-        <v>317.3852073294406</v>
+        <v>317.3852073294404</v>
       </c>
       <c r="X35" t="n">
-        <v>337.8753392904966</v>
+        <v>337.8753392904964</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.3821772680812</v>
+        <v>354.382177268081</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.9762187939649</v>
+        <v>147.9762187939647</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>135.3910597106552</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>114.5782012585968</v>
+        <v>48.94185754749599</v>
       </c>
       <c r="F37" t="n">
-        <v>113.5652866349588</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>134.1700468710558</v>
+        <v>134.1700468710556</v>
       </c>
       <c r="H37" t="n">
-        <v>4.592023869075442</v>
+        <v>112.8992535263482</v>
       </c>
       <c r="I37" t="n">
-        <v>64.4966590218657</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.07639128207494</v>
+        <v>57.07639128207474</v>
       </c>
       <c r="S37" t="n">
-        <v>157.9132639434695</v>
+        <v>157.9132639434693</v>
       </c>
       <c r="T37" t="n">
-        <v>187.6931878881968</v>
+        <v>187.6931878881966</v>
       </c>
       <c r="U37" t="n">
-        <v>254.3560768176405</v>
+        <v>254.3560768176403</v>
       </c>
       <c r="V37" t="n">
-        <v>220.2818819358556</v>
+        <v>220.2818819358554</v>
       </c>
       <c r="W37" t="n">
-        <v>254.6672369486186</v>
+        <v>254.6672369486184</v>
       </c>
       <c r="X37" t="n">
-        <v>193.8538940010648</v>
+        <v>193.8538940010646</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.7288919641224</v>
+        <v>186.7288919641222</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128501</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1587.572912274996</v>
+        <v>1218.610395334585</v>
       </c>
       <c r="C2" t="n">
         <v>1218.610395334585</v>
@@ -4316,64 +4316,64 @@
         <v>474.5564441295899</v>
       </c>
       <c r="F2" t="n">
-        <v>63.57053933998228</v>
+        <v>63.57053933998229</v>
       </c>
       <c r="G2" t="n">
-        <v>49.45085318761129</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="H2" t="n">
-        <v>49.45085318761129</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="I2" t="n">
-        <v>49.45085318761129</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="J2" t="n">
-        <v>148.891030325428</v>
+        <v>148.8910303254283</v>
       </c>
       <c r="K2" t="n">
-        <v>418.6708828959939</v>
+        <v>418.6708828959945</v>
       </c>
       <c r="L2" t="n">
-        <v>805.6332731184026</v>
+        <v>805.6332731184034</v>
       </c>
       <c r="M2" t="n">
         <v>1252.810037384148</v>
       </c>
       <c r="N2" t="n">
-        <v>1692.590591658813</v>
+        <v>1692.590591658814</v>
       </c>
       <c r="O2" t="n">
-        <v>2062.675260521428</v>
+        <v>2062.675260521429</v>
       </c>
       <c r="P2" t="n">
-        <v>2340.859580276713</v>
+        <v>2340.859580276714</v>
       </c>
       <c r="Q2" t="n">
-        <v>2472.542659380565</v>
+        <v>2472.542659380566</v>
       </c>
       <c r="R2" t="n">
-        <v>2472.542659380565</v>
+        <v>2472.542659380566</v>
       </c>
       <c r="S2" t="n">
-        <v>2472.542659380565</v>
+        <v>2472.542659380566</v>
       </c>
       <c r="T2" t="n">
-        <v>2253.048767499442</v>
+        <v>2472.542659380566</v>
       </c>
       <c r="U2" t="n">
-        <v>1999.271279570257</v>
+        <v>2472.542659380566</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.712244250808</v>
+        <v>2334.98414084159</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.712244250808</v>
+        <v>1982.215485571476</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.712244250808</v>
+        <v>1608.749727310396</v>
       </c>
       <c r="Y2" t="n">
-        <v>1587.572912274996</v>
+        <v>1218.610395334585</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.7409668570018</v>
+        <v>923.2054993476088</v>
       </c>
       <c r="C3" t="n">
-        <v>814.2879375758748</v>
+        <v>748.7524700664818</v>
       </c>
       <c r="D3" t="n">
-        <v>665.3535279146236</v>
+        <v>599.8180604052305</v>
       </c>
       <c r="E3" t="n">
-        <v>506.116072909168</v>
+        <v>440.580605399775</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5815149360529</v>
+        <v>294.04604742666</v>
       </c>
       <c r="G3" t="n">
         <v>221.5663817050653</v>
@@ -4404,55 +4404,55 @@
         <v>115.1093259128454</v>
       </c>
       <c r="I3" t="n">
-        <v>49.45085318761129</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="J3" t="n">
-        <v>114.9833617744797</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="K3" t="n">
-        <v>353.6096999286441</v>
+        <v>288.0771913417757</v>
       </c>
       <c r="L3" t="n">
-        <v>735.87665618292</v>
+        <v>670.3441475960517</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.943385404471</v>
+        <v>1168.410876817603</v>
       </c>
       <c r="N3" t="n">
-        <v>1760.899472292166</v>
+        <v>1695.366963705298</v>
       </c>
       <c r="O3" t="n">
-        <v>2176.545664315435</v>
+        <v>2111.013155728567</v>
       </c>
       <c r="P3" t="n">
-        <v>2472.542659380565</v>
+        <v>2427.60280116542</v>
       </c>
       <c r="Q3" t="n">
-        <v>2472.542659380565</v>
+        <v>2472.542659380566</v>
       </c>
       <c r="R3" t="n">
-        <v>2415.808825506403</v>
+        <v>2415.808825506404</v>
       </c>
       <c r="S3" t="n">
-        <v>2255.685149419311</v>
+        <v>2255.685149419312</v>
       </c>
       <c r="T3" t="n">
-        <v>2056.383296529387</v>
+        <v>2056.383296529388</v>
       </c>
       <c r="U3" t="n">
-        <v>1828.206763278039</v>
+        <v>1828.20676327804</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.054655046296</v>
+        <v>1593.054655046297</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.568102847556</v>
+        <v>1338.817298318095</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.716602642024</v>
+        <v>1130.965798112563</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.95630387707</v>
+        <v>923.2054993476088</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.2219560526686</v>
+        <v>430.6230723277292</v>
       </c>
       <c r="C4" t="n">
-        <v>388.2219560526686</v>
+        <v>430.6230723277292</v>
       </c>
       <c r="D4" t="n">
-        <v>388.2219560526686</v>
+        <v>430.6230723277292</v>
       </c>
       <c r="E4" t="n">
-        <v>240.3088624702754</v>
+        <v>365.4286463359424</v>
       </c>
       <c r="F4" t="n">
-        <v>240.3088624702754</v>
+        <v>218.5386988380321</v>
       </c>
       <c r="G4" t="n">
-        <v>240.3088624702754</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="H4" t="n">
-        <v>240.3088624702754</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="I4" t="n">
-        <v>101.3321866053276</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="J4" t="n">
-        <v>49.45085318761129</v>
+        <v>49.45085318761131</v>
       </c>
       <c r="K4" t="n">
-        <v>95.72733544563116</v>
+        <v>95.72733544563118</v>
       </c>
       <c r="L4" t="n">
         <v>210.4717349036525</v>
@@ -4498,40 +4498,40 @@
         <v>341.8427388746852</v>
       </c>
       <c r="N4" t="n">
-        <v>475.5246504217713</v>
+        <v>475.5246504217714</v>
       </c>
       <c r="O4" t="n">
         <v>582.9852372653899</v>
       </c>
       <c r="P4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712594</v>
       </c>
       <c r="Q4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712594</v>
       </c>
       <c r="R4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712594</v>
       </c>
       <c r="S4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712594</v>
       </c>
       <c r="T4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712594</v>
       </c>
       <c r="U4" t="n">
-        <v>651.4156514712593</v>
+        <v>651.4156514712594</v>
       </c>
       <c r="V4" t="n">
-        <v>396.7311632653724</v>
+        <v>651.4156514712594</v>
       </c>
       <c r="W4" t="n">
-        <v>396.7311632653724</v>
+        <v>651.4156514712594</v>
       </c>
       <c r="X4" t="n">
-        <v>396.7311632653724</v>
+        <v>651.4156514712594</v>
       </c>
       <c r="Y4" t="n">
-        <v>388.2219560526686</v>
+        <v>430.6230723277292</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1723.034926616959</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C5" t="n">
-        <v>1723.034926616959</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1364.769228010209</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>978.9809754119644</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862885</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.034926616959</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
         <v>665.1105362747051</v>
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4674,13 +4674,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.6044479702274</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="C7" t="n">
-        <v>359.6044479702274</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>359.6044479702274</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>359.6044479702274</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>359.6044479702274</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>359.6044479702274</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="X7" t="n">
-        <v>359.6044479702274</v>
+        <v>407.4645182330357</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.6044479702274</v>
+        <v>407.4645182330357</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1017.998017761265</v>
+        <v>1538.731846067564</v>
       </c>
       <c r="C8" t="n">
-        <v>1017.998017761265</v>
+        <v>1169.769329127152</v>
       </c>
       <c r="D8" t="n">
-        <v>1017.998017761265</v>
+        <v>811.5036305204017</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>811.5036305204017</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>400.5177257307941</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4832,22 +4832,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801198</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.597857825387</v>
+        <v>1538.731846067564</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>139.6424261952883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>139.6424261952883</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>139.6424261952883</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5021,22 @@
         <v>2000.689988551792</v>
       </c>
       <c r="D11" t="n">
-        <v>1642.424289945041</v>
+        <v>1642.424289945042</v>
       </c>
       <c r="E11" t="n">
         <v>1256.636037346797</v>
       </c>
       <c r="F11" t="n">
-        <v>845.6501325571896</v>
+        <v>845.6501325571899</v>
       </c>
       <c r="G11" t="n">
-        <v>430.5776824021862</v>
+        <v>430.5776824021863</v>
       </c>
       <c r="H11" t="n">
         <v>132.9940820109534</v>
       </c>
       <c r="I11" t="n">
-        <v>90.99718325042211</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="J11" t="n">
         <v>447.2819632298006</v>
@@ -5045,43 +5045,43 @@
         <v>1102.0052953651</v>
       </c>
       <c r="L11" t="n">
-        <v>1670.666357724073</v>
+        <v>1553.039508613509</v>
       </c>
       <c r="M11" t="n">
-        <v>2204.198262395998</v>
+        <v>2086.571413285434</v>
       </c>
       <c r="N11" t="n">
-        <v>2750.97707945478</v>
+        <v>2633.350230344216</v>
       </c>
       <c r="O11" t="n">
-        <v>3253.949550334117</v>
+        <v>3253.94955033412</v>
       </c>
       <c r="P11" t="n">
-        <v>3967.304637781062</v>
+        <v>3967.304637781065</v>
       </c>
       <c r="Q11" t="n">
-        <v>4425.78284029005</v>
+        <v>4425.782840290053</v>
       </c>
       <c r="R11" t="n">
-        <v>4549.859162521106</v>
+        <v>4549.859162521108</v>
       </c>
       <c r="S11" t="n">
-        <v>4439.568494048201</v>
+        <v>4439.568494048203</v>
       </c>
       <c r="T11" t="n">
-        <v>4233.590746432423</v>
+        <v>4233.590746432425</v>
       </c>
       <c r="U11" t="n">
-        <v>3980.060269706259</v>
+        <v>3980.060269706262</v>
       </c>
       <c r="V11" t="n">
-        <v>3648.997382362688</v>
+        <v>3872.626091063333</v>
       </c>
       <c r="W11" t="n">
-        <v>3296.228727092574</v>
+        <v>3519.857435793217</v>
       </c>
       <c r="X11" t="n">
-        <v>2922.762968831494</v>
+        <v>3146.391677532137</v>
       </c>
       <c r="Y11" t="n">
         <v>2756.252345556326</v>
@@ -5109,25 +5109,25 @@
         <v>336.869469378398</v>
       </c>
       <c r="G12" t="n">
-        <v>200.5063692110166</v>
+        <v>200.5063692110167</v>
       </c>
       <c r="H12" t="n">
-        <v>110.0044748488842</v>
+        <v>110.0044748488841</v>
       </c>
       <c r="I12" t="n">
-        <v>90.99718325042211</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="J12" t="n">
-        <v>184.6744527410394</v>
+        <v>184.6744527410395</v>
       </c>
       <c r="K12" t="n">
         <v>422.9386517213866</v>
       </c>
       <c r="L12" t="n">
-        <v>789.636812034052</v>
+        <v>789.6368120340518</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.913137256368</v>
+        <v>1236.913137256367</v>
       </c>
       <c r="N12" t="n">
         <v>1710.436180810822</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.1652345675095</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="C13" t="n">
-        <v>641.2290516396026</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="D13" t="n">
-        <v>491.1124122272668</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="E13" t="n">
-        <v>343.1993186448738</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="F13" t="n">
-        <v>343.1993186448738</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="G13" t="n">
-        <v>175.4964820195928</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="H13" t="n">
-        <v>90.99718325042211</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="I13" t="n">
-        <v>90.99718325042211</v>
+        <v>90.99718325042217</v>
       </c>
       <c r="J13" t="n">
-        <v>136.1198156973577</v>
+        <v>136.1198156973578</v>
       </c>
       <c r="K13" t="n">
-        <v>340.106998646234</v>
+        <v>340.1069986462339</v>
       </c>
       <c r="L13" t="n">
         <v>656.6667970947301</v>
@@ -5215,7 +5215,7 @@
         <v>1641.561818320557</v>
       </c>
       <c r="P13" t="n">
-        <v>1874.169318754216</v>
+        <v>1874.169318754217</v>
       </c>
       <c r="Q13" t="n">
         <v>1951.779614906731</v>
@@ -5224,25 +5224,25 @@
         <v>1951.779614906731</v>
       </c>
       <c r="S13" t="n">
-        <v>1951.779614906731</v>
+        <v>1760.093730733558</v>
       </c>
       <c r="T13" t="n">
-        <v>1730.012999476257</v>
+        <v>1538.327115303084</v>
       </c>
       <c r="U13" t="n">
-        <v>1730.012999476257</v>
+        <v>1249.224248428727</v>
       </c>
       <c r="V13" t="n">
-        <v>1730.012999476257</v>
+        <v>994.5397602228405</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.595829439297</v>
+        <v>705.12259018588</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.606278541279</v>
+        <v>477.1330392878626</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.8136993977492</v>
+        <v>256.3404601443325</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5282,22 +5282,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,7 +5306,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5318,10 +5318,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>654.9300288380085</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C16" t="n">
-        <v>485.9938459101016</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>485.9938459101016</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442026</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482926987</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892248</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931526</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501052</v>
       </c>
       <c r="U16" t="n">
-        <v>1829.462281952643</v>
+        <v>1253.788099626696</v>
       </c>
       <c r="V16" t="n">
-        <v>1574.777793746756</v>
+        <v>999.103611420809</v>
       </c>
       <c r="W16" t="n">
-        <v>1285.360623709796</v>
+        <v>999.103611420809</v>
       </c>
       <c r="X16" t="n">
-        <v>1057.371072811778</v>
+        <v>771.1140605227916</v>
       </c>
       <c r="Y16" t="n">
-        <v>836.5784936682483</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,16 +5498,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,22 +5519,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1043.422493530327</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C19" t="n">
-        <v>874.4863106024202</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D19" t="n">
-        <v>724.3696711900844</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>576.4565776076913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>429.5666301097809</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>261.8637934844999</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V19" t="n">
-        <v>1453.060509258584</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W19" t="n">
-        <v>1453.060509258584</v>
+        <v>931.4530568143257</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.070958360567</v>
+        <v>778.8594912975091</v>
       </c>
       <c r="Y19" t="n">
-        <v>1225.070958360567</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
     <row r="20">
@@ -5729,49 +5729,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969822</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>529.525731183237</v>
+        <v>657.5961351655761</v>
       </c>
       <c r="C22" t="n">
-        <v>360.5895482553301</v>
+        <v>657.5961351655761</v>
       </c>
       <c r="D22" t="n">
-        <v>360.5895482553301</v>
+        <v>507.4794957532404</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>507.4794957532404</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>360.58954825533</v>
       </c>
       <c r="G22" t="n">
         <v>192.8867116300491</v>
@@ -5911,13 +5911,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
@@ -5926,34 +5926,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104705</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104705</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1704.057984297872</v>
+        <v>1361.062753413011</v>
       </c>
       <c r="V22" t="n">
-        <v>1449.373496091985</v>
+        <v>1106.378265207124</v>
       </c>
       <c r="W22" t="n">
-        <v>1159.956326055024</v>
+        <v>1106.378265207124</v>
       </c>
       <c r="X22" t="n">
-        <v>931.9667751570069</v>
+        <v>878.3887143091063</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.1741960134767</v>
+        <v>657.5961351655761</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001584</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>1770.231306037953</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2749.9835782646</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3629.948228594054</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763017</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C25" t="n">
         <v>95.56103444839442</v>
@@ -6133,19 +6133,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839439</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783404</v>
+        <v>999.1036114208123</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413798</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433625</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y25" t="n">
-        <v>264.4972173763017</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,25 +6224,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1840.447459262338</v>
+        <v>1172.647446689875</v>
       </c>
       <c r="M26" t="n">
-        <v>2373.979363934262</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.758180993045</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6400,19 +6400,19 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
         <v>1270.093287563029</v>
@@ -6452,55 +6452,55 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K29" t="n">
-        <v>1002.806306216375</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.840519464783</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,7 +6634,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6649,22 +6649,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6871,37 +6871,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1830.859408465326</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1830.859408465326</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1576.174920259439</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201818</v>
+        <v>1286.757750222479</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221645</v>
+        <v>1058.768199324461</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2139.12333304775</v>
+        <v>2139.123333047748</v>
       </c>
       <c r="C35" t="n">
-        <v>1802.338352862866</v>
+        <v>1802.338352862864</v>
       </c>
       <c r="D35" t="n">
-        <v>1476.250191011643</v>
+        <v>1476.250191011641</v>
       </c>
       <c r="E35" t="n">
-        <v>1122.639475168926</v>
+        <v>1122.639475168925</v>
       </c>
       <c r="F35" t="n">
-        <v>743.8311071348464</v>
+        <v>743.8311071348453</v>
       </c>
       <c r="G35" t="n">
-        <v>360.9361937353706</v>
+        <v>360.9361937353697</v>
       </c>
       <c r="H35" t="n">
-        <v>95.53013009966504</v>
+        <v>95.53013009966477</v>
       </c>
       <c r="I35" t="n">
-        <v>85.71076809466146</v>
+        <v>85.71076809466138</v>
       </c>
       <c r="J35" t="n">
-        <v>365.6473102265846</v>
+        <v>274.5898990536868</v>
       </c>
       <c r="K35" t="n">
-        <v>1020.370642361884</v>
+        <v>608.4092727435334</v>
       </c>
       <c r="L35" t="n">
-        <v>1471.404855610293</v>
+        <v>1472.928088396888</v>
       </c>
       <c r="M35" t="n">
-        <v>2004.936760282218</v>
+        <v>2451.478391226717</v>
       </c>
       <c r="N35" t="n">
-        <v>2551.715577341</v>
+        <v>3080.488139184069</v>
       </c>
       <c r="O35" t="n">
-        <v>3054.688048220337</v>
+        <v>3583.460610063406</v>
       </c>
       <c r="P35" t="n">
-        <v>3768.043135667283</v>
+        <v>3978.234976420585</v>
       </c>
       <c r="Q35" t="n">
-        <v>4226.521338176271</v>
+        <v>4226.521338176267</v>
       </c>
       <c r="R35" t="n">
-        <v>4285.538404733073</v>
+        <v>4285.538404733069</v>
       </c>
       <c r="S35" t="n">
-        <v>4207.425273015695</v>
+        <v>4207.425273015692</v>
       </c>
       <c r="T35" t="n">
-        <v>4033.625062155445</v>
+        <v>4033.625062155442</v>
       </c>
       <c r="U35" t="n">
-        <v>3812.272122184809</v>
+        <v>3812.272122184807</v>
       </c>
       <c r="V35" t="n">
-        <v>3513.386771596766</v>
+        <v>3513.386771596764</v>
       </c>
       <c r="W35" t="n">
-        <v>3192.79565308218</v>
+        <v>3192.795653082178</v>
       </c>
       <c r="X35" t="n">
-        <v>2851.507431576628</v>
+        <v>2851.507431576626</v>
       </c>
       <c r="Y35" t="n">
-        <v>2493.545636356344</v>
+        <v>2493.545636356343</v>
       </c>
     </row>
     <row r="36">
@@ -6999,28 +6999,28 @@
         <v>637.3550672012084</v>
       </c>
       <c r="E36" t="n">
-        <v>478.1176121957529</v>
+        <v>478.1176121957528</v>
       </c>
       <c r="F36" t="n">
-        <v>331.5830542226379</v>
+        <v>331.5830542226378</v>
       </c>
       <c r="G36" t="n">
-        <v>195.219954055256</v>
+        <v>195.2199540552559</v>
       </c>
       <c r="H36" t="n">
-        <v>104.7180596931235</v>
+        <v>104.7180596931234</v>
       </c>
       <c r="I36" t="n">
-        <v>85.71076809466146</v>
+        <v>85.71076809466138</v>
       </c>
       <c r="J36" t="n">
-        <v>179.3880375852788</v>
+        <v>179.3880375852787</v>
       </c>
       <c r="K36" t="n">
         <v>417.6522365656259</v>
       </c>
       <c r="L36" t="n">
-        <v>784.3503968782913</v>
+        <v>784.3503968782912</v>
       </c>
       <c r="M36" t="n">
         <v>1231.626722100607</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>521.4705839083509</v>
+        <v>521.4705839083533</v>
       </c>
       <c r="C37" t="n">
-        <v>521.4705839083509</v>
+        <v>384.7119377359743</v>
       </c>
       <c r="D37" t="n">
-        <v>521.4705839083509</v>
+        <v>384.7119377359743</v>
       </c>
       <c r="E37" t="n">
-        <v>405.7350270814856</v>
+        <v>335.2757179910288</v>
       </c>
       <c r="F37" t="n">
-        <v>291.0226163391029</v>
+        <v>335.2757179910288</v>
       </c>
       <c r="G37" t="n">
-        <v>155.4973164693495</v>
+        <v>199.7504181212757</v>
       </c>
       <c r="H37" t="n">
-        <v>150.8589085207884</v>
+        <v>85.71076809466138</v>
       </c>
       <c r="I37" t="n">
-        <v>85.71076809466146</v>
+        <v>85.71076809466138</v>
       </c>
       <c r="J37" t="n">
-        <v>162.3706043156897</v>
+        <v>162.3706043156898</v>
       </c>
       <c r="K37" t="n">
-        <v>397.8949910386586</v>
+        <v>397.894991038659</v>
       </c>
       <c r="L37" t="n">
-        <v>745.9919932612472</v>
+        <v>745.991993261248</v>
       </c>
       <c r="M37" t="n">
-        <v>1121.686242634889</v>
+        <v>1121.68624263489</v>
       </c>
       <c r="N37" t="n">
-        <v>1494.631823114846</v>
+        <v>1494.631823114847</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.498625809352</v>
+        <v>1825.498625809354</v>
       </c>
       <c r="P37" t="n">
-        <v>2089.643330017104</v>
+        <v>2089.643330017106</v>
       </c>
       <c r="Q37" t="n">
-        <v>2198.790829943712</v>
+        <v>2198.790829943713</v>
       </c>
       <c r="R37" t="n">
-        <v>2141.137909456767</v>
+        <v>2141.137909456769</v>
       </c>
       <c r="S37" t="n">
-        <v>1981.629562039121</v>
+        <v>1981.629562039123</v>
       </c>
       <c r="T37" t="n">
-        <v>1792.040483364175</v>
+        <v>1792.040483364177</v>
       </c>
       <c r="U37" t="n">
-        <v>1535.115153245346</v>
+        <v>1535.115153245349</v>
       </c>
       <c r="V37" t="n">
-        <v>1312.608201794987</v>
+        <v>1312.60820179499</v>
       </c>
       <c r="W37" t="n">
-        <v>1055.368568513554</v>
+        <v>1055.368568513557</v>
       </c>
       <c r="X37" t="n">
-        <v>859.5565543710653</v>
+        <v>859.5565543710673</v>
       </c>
       <c r="Y37" t="n">
-        <v>670.9415119830629</v>
+        <v>670.9415119830651</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7184,10 +7184,10 @@
         <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857899</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737236</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
         <v>3474.791320094414</v>
@@ -7208,7 +7208,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960311</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7351,10 +7351,10 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
         <v>2127.355355052752</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7412,19 +7412,19 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>1045.699547878784</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1496.733761127192</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2030.265665799117</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2577.044482857899</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.016953737236</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P41" t="n">
         <v>3474.791320094414</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I43" t="n">
         <v>81.14691689668915</v>
@@ -7573,7 +7573,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7628,13 +7628,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
@@ -7649,25 +7649,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>792.1780824632688</v>
+        <v>822.9179334642249</v>
       </c>
       <c r="L44" t="n">
-        <v>1243.212295711678</v>
+        <v>1273.952146712634</v>
       </c>
       <c r="M44" t="n">
-        <v>1776.744200383602</v>
+        <v>1807.484051384558</v>
       </c>
       <c r="N44" t="n">
-        <v>2323.523017442385</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O44" t="n">
-        <v>2826.495488321721</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768667</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
@@ -7825,28 +7825,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519666</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>59.89658222235997</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>297.6621116988024</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.53786909056622</v>
+        <v>94.93166526748107</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>118.8149991015796</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>118.8149991015824</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
-        <v>23.80814351663628</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>172.4995987156013</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>285.7011105564207</v>
+        <v>104.3976710547477</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>219.3344627260154</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>170.1140909277314</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>344.7025836476828</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.97718300292701</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>83.06154636219242</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>277.2206841544134</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>277.2206841544135</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>21.13839585591376</v>
+        <v>52.18875040233416</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>221.3924216136347</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>221.3924216136368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>61.10070913284108</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23464,16 +23464,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>160.5994658950733</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.29992146557598</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>76.4677038784145</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>74.64202552738871</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143215</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,19 +24175,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>36.44921121684834</v>
+        <v>106.2019072484478</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.4891296437046</v>
+        <v>3.556976973657157</v>
       </c>
     </row>
     <row r="26">
@@ -24649,13 +24649,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.1421360569668</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>105.0742887270139</v>
+        <v>95.31973221318547</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>135.3910597106554</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>116.7597116302399</v>
+        <v>116.7597116302398</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>65.63634371110058</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>113.5652866349587</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>108.3072296572729</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>64.4966590218655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="E2" t="n">
         <v>330029.8132307464</v>
       </c>
       <c r="F2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539355</v>
       </c>
       <c r="G2" t="n">
         <v>337519.5188539358</v>
@@ -26335,25 +26335,25 @@
         <v>337519.5188539357</v>
       </c>
       <c r="J2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="K2" t="n">
-        <v>337519.518853936</v>
+        <v>337519.5188539358</v>
       </c>
       <c r="L2" t="n">
-        <v>337519.5188539359</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="M2" t="n">
-        <v>345266.0805821393</v>
+        <v>345266.080582139</v>
       </c>
       <c r="N2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="O2" t="n">
+        <v>348942.7521923205</v>
+      </c>
+      <c r="P2" t="n">
         <v>348942.7521923204</v>
-      </c>
-      <c r="P2" t="n">
-        <v>348942.7521923205</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>524572.100942364</v>
+        <v>524572.1009423641</v>
       </c>
       <c r="C3" t="n">
-        <v>62156.63307939706</v>
+        <v>62156.63307939695</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>710344.0944560545</v>
+        <v>710344.0944560547</v>
       </c>
       <c r="F3" t="n">
-        <v>16345.77535437767</v>
+        <v>16345.77535437747</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161731.4878927421</v>
+        <v>161731.4878927422</v>
       </c>
       <c r="K3" t="n">
-        <v>14451.62702443009</v>
+        <v>14451.62702443018</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110226.2270698832</v>
+        <v>110226.2270698833</v>
       </c>
       <c r="N3" t="n">
-        <v>12095.50018449615</v>
+        <v>12095.50018449597</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236173.1445153633</v>
+        <v>236173.1445153632</v>
       </c>
       <c r="C4" t="n">
         <v>218780.3249983351</v>
@@ -26424,40 +26424,40 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>27960.33741398216</v>
+        <v>27960.33741398213</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079765</v>
       </c>
       <c r="G4" t="n">
+        <v>32032.95503079765</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32032.95503079765</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="J4" t="n">
         <v>32032.95503079769</v>
       </c>
-      <c r="H4" t="n">
-        <v>32032.95503079768</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32032.95503079768</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32032.95503079768</v>
-      </c>
       <c r="K4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="L4" t="n">
-        <v>32032.95503079767</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="M4" t="n">
-        <v>55434.63300596866</v>
+        <v>55434.63300596878</v>
       </c>
       <c r="N4" t="n">
-        <v>66395.57832303872</v>
+        <v>66395.57832303867</v>
       </c>
       <c r="O4" t="n">
         <v>66395.57832303867</v>
       </c>
       <c r="P4" t="n">
-        <v>66395.57832303869</v>
+        <v>66395.57832303867</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78391.31548084111</v>
+        <v>78391.31548084112</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>92914.9913432547</v>
+        <v>92914.99134325475</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>91575.39782900206</v>
+        <v>91575.39782900202</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26522,40 +26522,40 @@
         <v>-490193.8087462478</v>
       </c>
       <c r="C6" t="n">
-        <v>-14853.28394882116</v>
+        <v>-14853.2839488211</v>
       </c>
       <c r="D6" t="n">
-        <v>47303.34913057592</v>
+        <v>47303.34913057607</v>
       </c>
       <c r="E6" t="n">
-        <v>-501189.6099825449</v>
+        <v>-501300.8625646721</v>
       </c>
       <c r="F6" t="n">
-        <v>192757.2702150467</v>
+        <v>192690.074724821</v>
       </c>
       <c r="G6" t="n">
-        <v>209103.0455694244</v>
+        <v>209035.8500791987</v>
       </c>
       <c r="H6" t="n">
-        <v>209103.0455694245</v>
+        <v>209035.8500791987</v>
       </c>
       <c r="I6" t="n">
-        <v>209103.0455694243</v>
+        <v>209035.8500791986</v>
       </c>
       <c r="J6" t="n">
-        <v>47371.55767668223</v>
+        <v>47304.36218645632</v>
       </c>
       <c r="K6" t="n">
-        <v>194651.4185449946</v>
+        <v>194584.2230547684</v>
       </c>
       <c r="L6" t="n">
-        <v>209103.0455694245</v>
+        <v>209035.8500791985</v>
       </c>
       <c r="M6" t="n">
-        <v>88029.82267728529</v>
+        <v>88008.1951972251</v>
       </c>
       <c r="N6" t="n">
-        <v>181073.7320099795</v>
+        <v>181073.7320099797</v>
       </c>
       <c r="O6" t="n">
         <v>193169.2321944757</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.406745791584</v>
+        <v>329.4067457915841</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.1356648451412</v>
+        <v>618.1356648451414</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1137.464790630276</v>
+        <v>1137.464790630277</v>
       </c>
       <c r="F4" t="n">
         <v>1194.51293060493</v>
@@ -26820,7 +26820,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1071.384601183268</v>
+        <v>1071.384601183267</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="N2" t="n">
-        <v>15.11937523062018</v>
+        <v>15.11937523061997</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.406745791584</v>
+        <v>329.4067457915841</v>
       </c>
       <c r="C3" t="n">
-        <v>48.33691842550263</v>
+        <v>48.33691842550255</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>618.1356648451412</v>
+        <v>618.1356648451414</v>
       </c>
       <c r="C4" t="n">
-        <v>56.15160790941434</v>
+        <v>56.15160790941422</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>463.1775178757208</v>
+        <v>463.1775178757215</v>
       </c>
       <c r="F4" t="n">
-        <v>57.04813997465385</v>
+        <v>57.04813997465317</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>618.1356648451412</v>
+        <v>618.1356648451414</v>
       </c>
       <c r="K4" t="n">
-        <v>56.15160790941411</v>
+        <v>56.15160790941445</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540589</v>
+        <v>340.0491884540585</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>618.1356648451412</v>
+        <v>618.1356648451414</v>
       </c>
       <c r="K4" t="n">
-        <v>56.15160790941434</v>
+        <v>56.15160790941422</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>463.1775178757208</v>
+        <v>463.1775178757215</v>
       </c>
       <c r="N4" t="n">
-        <v>57.04813997465385</v>
+        <v>57.04813997465317</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>66.68481042223273</v>
+        <v>66.68481042223272</v>
       </c>
       <c r="S2" t="n">
-        <v>178.8437631752877</v>
+        <v>178.8437631752876</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.2989529623116</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2397130498935</v>
       </c>
       <c r="V2" t="n">
-        <v>306.4088135038808</v>
+        <v>191.5693251165496</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>64.880112834299</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>231.4132964841673</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>81.89148091470021</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3969671939166</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.9458643536007</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>137.5869091062983</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>51.36252008353919</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.4216246371652</v>
+        <v>36.42162463716519</v>
       </c>
       <c r="R4" t="n">
         <v>150.5844444151174</v>
@@ -27594,7 +27594,7 @@
         <v>286.2866286929704</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.160538211518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>228.7953748711796</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>381.9528783528546</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>72.34135353425845</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>144.8531189579987</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>248.1761002532769</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>222.6064897943309</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>50.1231718611636</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-3.723243935382925e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.177308744209098e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="C35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="D35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="E35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="F35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="G35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="H35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="I35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="T35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="U35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="V35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="W35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="X35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="C37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="D37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="E37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="F37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="G37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="H37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="I37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="J37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="K37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="L37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="M37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="N37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="O37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="P37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="R37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="S37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="T37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="U37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="V37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="W37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="X37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.8557613879724</v>
+        <v>31.85576138797259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31045,13 +31045,13 @@
         <v>13.56195712698717</v>
       </c>
       <c r="I2" t="n">
-        <v>51.05307966685445</v>
+        <v>51.05307966685446</v>
       </c>
       <c r="J2" t="n">
-        <v>112.3939127261445</v>
+        <v>112.3939127261446</v>
       </c>
       <c r="K2" t="n">
-        <v>168.449340060246</v>
+        <v>168.4493400602461</v>
       </c>
       <c r="L2" t="n">
         <v>208.9763016542931</v>
@@ -31063,22 +31063,22 @@
         <v>236.2889212802284</v>
       </c>
       <c r="O2" t="n">
-        <v>223.1209279999668</v>
+        <v>223.1209279999669</v>
       </c>
       <c r="P2" t="n">
         <v>190.4285499628624</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.0039104305564</v>
+        <v>143.0039104305565</v>
       </c>
       <c r="R2" t="n">
-        <v>83.18430751891695</v>
+        <v>83.18430751891697</v>
       </c>
       <c r="S2" t="n">
         <v>30.17630641095768</v>
       </c>
       <c r="T2" t="n">
-        <v>5.796896601819733</v>
+        <v>5.796896601819734</v>
       </c>
       <c r="U2" t="n">
         <v>0.1059398579430219</v>
@@ -31118,10 +31118,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7085352645328411</v>
+        <v>0.7085352645328412</v>
       </c>
       <c r="H3" t="n">
-        <v>6.842959002198755</v>
+        <v>6.842959002198757</v>
       </c>
       <c r="I3" t="n">
         <v>24.39474485343335</v>
@@ -31139,16 +31139,16 @@
         <v>179.5266764564133</v>
       </c>
       <c r="N3" t="n">
-        <v>184.2782133839164</v>
+        <v>184.2782133839165</v>
       </c>
       <c r="O3" t="n">
-        <v>168.5785635750571</v>
+        <v>168.5785635750572</v>
       </c>
       <c r="P3" t="n">
         <v>135.2991594176791</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.4439049954553</v>
+        <v>90.44390499545531</v>
       </c>
       <c r="R3" t="n">
         <v>43.99133861722326</v>
@@ -31157,10 +31157,10 @@
         <v>13.16073177761658</v>
       </c>
       <c r="T3" t="n">
-        <v>2.855894333796845</v>
+        <v>2.855894333796846</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04661416214031851</v>
+        <v>0.04661416214031852</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5940121645422006</v>
+        <v>0.5940121645422007</v>
       </c>
       <c r="H4" t="n">
-        <v>5.281308153838842</v>
+        <v>5.281308153838843</v>
       </c>
       <c r="I4" t="n">
-        <v>17.86356582096</v>
+        <v>17.86356582096001</v>
       </c>
       <c r="J4" t="n">
-        <v>41.99666003313358</v>
+        <v>41.99666003313359</v>
       </c>
       <c r="K4" t="n">
-        <v>69.0134132986302</v>
+        <v>69.01341329863021</v>
       </c>
       <c r="L4" t="n">
-        <v>88.313408535665</v>
+        <v>88.31340853566502</v>
       </c>
       <c r="M4" t="n">
-        <v>93.11410684728331</v>
+        <v>93.11410684728332</v>
       </c>
       <c r="N4" t="n">
-        <v>90.90006150671699</v>
+        <v>90.90006150671701</v>
       </c>
       <c r="O4" t="n">
-        <v>83.96091940274671</v>
+        <v>83.96091940274673</v>
       </c>
       <c r="P4" t="n">
-        <v>71.84307124608576</v>
+        <v>71.84307124608577</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.74041861452918</v>
+        <v>49.74041861452919</v>
       </c>
       <c r="R4" t="n">
-        <v>26.70894696205203</v>
+        <v>26.70894696205204</v>
       </c>
       <c r="S4" t="n">
         <v>10.35201199479453</v>
       </c>
       <c r="T4" t="n">
-        <v>2.53805197577122</v>
+        <v>2.538051975771221</v>
       </c>
       <c r="U4" t="n">
         <v>0.03240066352048371</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34702,7 +34702,7 @@
         <v>272.5049015864303</v>
       </c>
       <c r="L2" t="n">
-        <v>390.8711012347562</v>
+        <v>390.8711012347563</v>
       </c>
       <c r="M2" t="n">
         <v>451.6937012785305</v>
@@ -34717,7 +34717,7 @@
         <v>280.9942623790755</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.0132112160116</v>
+        <v>133.0132112160117</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>66.19445311804887</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>241.0367052062267</v>
       </c>
       <c r="L3" t="n">
-        <v>386.1282386406828</v>
+        <v>386.1282386406829</v>
       </c>
       <c r="M3" t="n">
         <v>503.0977062843949</v>
@@ -34793,10 +34793,10 @@
         <v>419.8446384073422</v>
       </c>
       <c r="P3" t="n">
-        <v>298.9868637021513</v>
+        <v>319.787520643286</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>45.39379617691485</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>46.74392147274735</v>
+        <v>46.74392147274736</v>
       </c>
       <c r="L4" t="n">
-        <v>115.9034337959811</v>
+        <v>115.9034337959812</v>
       </c>
       <c r="M4" t="n">
         <v>132.6979838091239</v>
@@ -34872,7 +34872,7 @@
         <v>108.5460473167864</v>
       </c>
       <c r="P4" t="n">
-        <v>69.12163051097924</v>
+        <v>69.12163051097926</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35413,7 +35413,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>574.4051134939118</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>626.8679999898015</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35650,7 +35650,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35659,7 +35659,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443158</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35887,7 +35887,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>562.729259346863</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451115</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>571.2615849349731</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>741.2912249487529</v>
+        <v>559.9877854470799</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>556.5257492814159</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200636</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>897.0044190605943</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.7641839716396</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>635.3633817751039</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.43417800103863</v>
+        <v>77.43417800103882</v>
       </c>
       <c r="K37" t="n">
-        <v>237.903420932292</v>
+        <v>237.9034209322922</v>
       </c>
       <c r="L37" t="n">
-        <v>351.6131335581705</v>
+        <v>351.6131335581707</v>
       </c>
       <c r="M37" t="n">
-        <v>379.4891407814562</v>
+        <v>379.4891407814564</v>
       </c>
       <c r="N37" t="n">
-        <v>376.7127075555125</v>
+        <v>376.7127075555127</v>
       </c>
       <c r="O37" t="n">
-        <v>334.2088916106122</v>
+        <v>334.2088916106123</v>
       </c>
       <c r="P37" t="n">
-        <v>266.8128325330828</v>
+        <v>266.812832533083</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.2499999258661</v>
+        <v>110.2499999258662</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>829.5225195673249</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37780,7 +37780,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>614.411970709814</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37795,7 +37795,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>358.3296824113143</v>
+        <v>389.3800369577347</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38026,19 +38026,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
